--- a/biology/Histoire de la zoologie et de la botanique/Gideon_Mantell/Gideon_Mantell.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Gideon_Mantell/Gideon_Mantell.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gideon Algernon Mantell (3 février 1790 - 10 novembre 1852) est un obstétricien, géologue et paléontologue britannique. En 1825 il est le deuxième paléontologue à identifier et nommer une espèce distincte de dinosaure (il nomme et décrit Iguanodon, mais en 1824 William Buckland a déjà nommé et décrit Megalosaurus). À la suite de la description d'Iguanodon, Mantell est lauréat de la Royal Medal, mais au moment des découvertes de Megalosaurus et Iguanodon le mot dinosaure n'existait pas encore, c'est en 1842 que ces découvertes menèrent le paléontologue Richard Owen à inventer le mot Dinosauria pour nommer un nouveau taxon de vertébrés disparus.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gideon Algernon Mantell est né à Lewes, dans le Sussex. Il épouse la paléontologue Mary Ann Woodhouse en 1816. Ils ont trois enfants ensemble, dont le scientifique et homme politique néo-zélandais Walter Mantell[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gideon Algernon Mantell est né à Lewes, dans le Sussex. Il épouse la paléontologue Mary Ann Woodhouse en 1816. Ils ont trois enfants ensemble, dont le scientifique et homme politique néo-zélandais Walter Mantell.
 Il devient obstétricien mais a aussi une passion pour la géologie. Il possède un cabinet médical à Lewes. La géologie occupe son temps libre. Les fossiles qu'il collectionne dans cette région sont d'origine marine et proviennent du Chalk, une ancienne subdivision du Crétacé supérieur. À partir de 1819, Mantell commence à acquérir des fossiles provenant d'une carrière, Withman's Green près de Cuckfield. Ils incluent des restes d'animaux terrestres et d'eau douce à une époque où les seuls spécimens du Crétacé anglais sont d'origine marine. Il nomme cette strate strate de la forêt Tilgate d'après le nom d'une aire boisée. Plus tard il sera montré que ces fossiles proviennent du Crétacé inférieur.
 En 1820 il commence à découvrir de très grands os, encore plus grands que ceux découverts par William Buckland à Stonesfield dans le Oxfordshire.
-En 1822, juste après avoir publié son premier livre The Fossils of South Downs or Illustrations of the Geology of Sussex (Les Fossiles des South Downs ou Illustration de la géologie du Sussex), il trouve plusieurs dents (certains historiens attribuent cette découverte à son épouse[2]) dont il ne peut pas identifier l'origine. Mantell les montre à d'autres scientifiques qui les rejettent en les considérant comme provenant de poissons ou de mammifères et de couches stratigraphiques plus récentes que celle des autres fossiles de la forêt de Tilgate. L'éminent anatomiste français Georges Cuvier les identifie d'abord comme étant celles d'un rhinocéros, puis comme celles d'un "nouveau reptile herbivore"[3]. Mantell lui est convaincu qu'elles proviennent bien de strates du Mésozoïque et finalement reconnaît qu'elles ressemblent à celles d'un iguane mais vingt fois plus grandes. À partir de cela, il estime la taille du propriétaire des dents à au moins 20 mètres de longueur.
+En 1822, juste après avoir publié son premier livre The Fossils of South Downs or Illustrations of the Geology of Sussex (Les Fossiles des South Downs ou Illustration de la géologie du Sussex), il trouve plusieurs dents (certains historiens attribuent cette découverte à son épouse) dont il ne peut pas identifier l'origine. Mantell les montre à d'autres scientifiques qui les rejettent en les considérant comme provenant de poissons ou de mammifères et de couches stratigraphiques plus récentes que celle des autres fossiles de la forêt de Tilgate. L'éminent anatomiste français Georges Cuvier les identifie d'abord comme étant celles d'un rhinocéros, puis comme celles d'un "nouveau reptile herbivore". Mantell lui est convaincu qu'elles proviennent bien de strates du Mésozoïque et finalement reconnaît qu'elles ressemblent à celles d'un iguane mais vingt fois plus grandes. À partir de cela, il estime la taille du propriétaire des dents à au moins 20 mètres de longueur.
 Il essaye en vain de convaincre ses pairs que les fossiles datent du Mésozoïque en étudiant soigneusement les couches rocheuses d'où elles proviennent. Richard Owen est un des principaux détracteurs de Mantell en clamant que les dents proviennent d'un mammifère. Des années plus tard, Mantell découvre suffisamment de fossiles pour montrer que les pattes avant de l'animal sont bien plus courtes que les pattes arrière, disqualifiant ainsi toute origine possible d'un mammifère. Il démontre aussi que les fossiles de vertébrés qu'Owen attribue à plusieurs animaux différents proviennent tous d'Iguanodons.
 En 1825 il présente à la Royal Society la description de cette nouvelle espèce fossile, jusque-là inconnue de la science, en lui attribuant le nom de genre Iguanodon (« dent d'iguane ») dans une Notice on the Iguanodon, a Newly Discovered Fossil Reptile, from the Sandstone of Tilgate Forest, in Sussex (Notes sur l'Iguanodon, un reptile fossile nouvellement découvert, provenant des grès de la forêt de Tilgate dans le Sussex). Sa présentation est reçue avec des acclamations. Il est élu membre de la Royal Society, qui lui confère la médaille royale et devient membre honoraire de l'Institut de Paris. Il est aussi récompensé par la médaille Wollaston décernée par la Geological Society of London.
 En 1832, il découvre un nouveau genre l'Hylaeosaurus et la nouvelle espèce Hylaeosaurus armatus qui seront publiés et attribués en 1833.
@@ -554,13 +568,52 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Genres
-Iguanodon Mantell, 1825
+          <t>Genres</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Iguanodon Mantell, 1825
 Hylaeosaurus Mantell, 1833
 Regnosaurus Mantell, 1848
-Pelorosaurus Mantell, 1850
-Espèces
-Iguanodon anglicus Mantell, 1825
+Pelorosaurus Mantell, 1850</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Gideon_Mantell</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gideon_Mantell</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxons créés</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Iguanodon anglicus Mantell, 1825
 Megalosaurus bucklandii Mantell, 1827
 Mosasaurus hoffmannii Mantell, 1829
 Hylaeosaurus armatus Mantell, 1833
